--- a/natmiOut/OldD4/LR-pairs_lrc2p/Serping1-Sele.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Serping1-Sele.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,247 +525,619 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.5417598041587</v>
+        <v>15.502027</v>
       </c>
       <c r="H2">
-        <v>11.5417598041587</v>
+        <v>46.50608099999999</v>
       </c>
       <c r="I2">
-        <v>0.01328527708676818</v>
+        <v>0.01694194650975459</v>
       </c>
       <c r="J2">
-        <v>0.01328527708676818</v>
+        <v>0.01834969517818498</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.20250548638032</v>
+        <v>9.112632333333332</v>
       </c>
       <c r="N2">
-        <v>3.20250548638032</v>
+        <v>27.337897</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9981738658344552</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9981738658344552</v>
       </c>
       <c r="Q2">
-        <v>36.96254909530208</v>
+        <v>141.2642724724063</v>
       </c>
       <c r="R2">
-        <v>36.96254909530208</v>
+        <v>1271.378452251657</v>
       </c>
       <c r="S2">
-        <v>0.01328527708676818</v>
+        <v>0.0169110082424023</v>
       </c>
       <c r="T2">
-        <v>0.01328527708676818</v>
+        <v>0.01831618617289277</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>647.188220337169</v>
+        <v>15.502027</v>
       </c>
       <c r="H3">
-        <v>647.188220337169</v>
+        <v>46.50608099999999</v>
       </c>
       <c r="I3">
-        <v>0.7449535409126804</v>
+        <v>0.01694194650975459</v>
       </c>
       <c r="J3">
-        <v>0.7449535409126804</v>
+        <v>0.01834969517818498</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>3.20250548638032</v>
+        <v>0.01667133333333333</v>
       </c>
       <c r="N3">
-        <v>3.20250548638032</v>
+        <v>0.050014</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.001826134165544791</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.001826134165544791</v>
       </c>
       <c r="Q3">
-        <v>2072.623826350499</v>
+        <v>0.2584394594593333</v>
       </c>
       <c r="R3">
-        <v>2072.623826350499</v>
+        <v>2.325955135134</v>
       </c>
       <c r="S3">
-        <v>0.7449535409126804</v>
+        <v>3.093826735229519E-05</v>
       </c>
       <c r="T3">
-        <v>0.7449535409126804</v>
+        <v>3.350900529221611E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.321253301182145</v>
+        <v>687.9602253333333</v>
       </c>
       <c r="H4">
-        <v>0.321253301182145</v>
+        <v>2063.880676</v>
       </c>
       <c r="I4">
-        <v>0.0003697823550015289</v>
+        <v>0.751862020265869</v>
       </c>
       <c r="J4">
-        <v>0.0003697823550015289</v>
+        <v>0.8143361142115235</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.20250548638032</v>
+        <v>9.112632333333332</v>
       </c>
       <c r="N4">
-        <v>3.20250548638032</v>
+        <v>27.337897</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.9981738658344552</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.9981738658344552</v>
       </c>
       <c r="Q4">
-        <v>1.028815459553609</v>
+        <v>6269.128593419818</v>
       </c>
       <c r="R4">
-        <v>1.028815459553609</v>
+        <v>56422.15734077837</v>
       </c>
       <c r="S4">
-        <v>0.0003697823550015289</v>
+        <v>0.750489019342886</v>
       </c>
       <c r="T4">
-        <v>0.0003697823550015289</v>
+        <v>0.8128490272111248</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>687.9602253333333</v>
+      </c>
+      <c r="H5">
+        <v>2063.880676</v>
+      </c>
+      <c r="I5">
+        <v>0.751862020265869</v>
+      </c>
+      <c r="J5">
+        <v>0.8143361142115235</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.01667133333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.050014</v>
+      </c>
+      <c r="O5">
+        <v>0.001826134165544791</v>
+      </c>
+      <c r="P5">
+        <v>0.001826134165544791</v>
+      </c>
+      <c r="Q5">
+        <v>11.46921423660711</v>
+      </c>
+      <c r="R5">
+        <v>103.222928129464</v>
+      </c>
+      <c r="S5">
+        <v>0.001373000922983034</v>
+      </c>
+      <c r="T5">
+        <v>0.001487087000398648</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.6984029999999999</v>
+      </c>
+      <c r="H6">
+        <v>2.095209</v>
+      </c>
+      <c r="I6">
+        <v>0.0007632747813077692</v>
+      </c>
+      <c r="J6">
+        <v>0.0008266971900855241</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>9.112632333333332</v>
+      </c>
+      <c r="N6">
+        <v>27.337897</v>
+      </c>
+      <c r="O6">
+        <v>0.9981738658344552</v>
+      </c>
+      <c r="P6">
+        <v>0.9981738658344552</v>
+      </c>
+      <c r="Q6">
+        <v>6.364289759496998</v>
+      </c>
+      <c r="R6">
+        <v>57.27860783547299</v>
+      </c>
+      <c r="S6">
+        <v>0.0007618809391519243</v>
+      </c>
+      <c r="T6">
+        <v>0.000825187530102149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.6984029999999999</v>
+      </c>
+      <c r="H7">
+        <v>2.095209</v>
+      </c>
+      <c r="I7">
+        <v>0.0007632747813077692</v>
+      </c>
+      <c r="J7">
+        <v>0.0008266971900855241</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.01667133333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.050014</v>
+      </c>
+      <c r="O7">
+        <v>0.001826134165544791</v>
+      </c>
+      <c r="P7">
+        <v>0.001826134165544791</v>
+      </c>
+      <c r="Q7">
+        <v>0.011643309214</v>
+      </c>
+      <c r="R7">
+        <v>0.104789782926</v>
+      </c>
+      <c r="S7">
+        <v>1.393842155844846E-06</v>
+      </c>
+      <c r="T7">
+        <v>1.509659983375052E-06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.255552</v>
+      </c>
+      <c r="H8">
+        <v>0.766656</v>
+      </c>
+      <c r="I8">
+        <v>0.0002792891738906664</v>
+      </c>
+      <c r="J8">
+        <v>0.0003024960092106361</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>9.112632333333332</v>
+      </c>
+      <c r="N8">
+        <v>27.337897</v>
+      </c>
+      <c r="O8">
+        <v>0.9981738658344552</v>
+      </c>
+      <c r="P8">
+        <v>0.9981738658344552</v>
+      </c>
+      <c r="Q8">
+        <v>2.328751418048</v>
+      </c>
+      <c r="R8">
+        <v>20.958762762432</v>
+      </c>
+      <c r="S8">
+        <v>0.0002787791543881579</v>
+      </c>
+      <c r="T8">
+        <v>0.0003019436109132756</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.255552</v>
+      </c>
+      <c r="H9">
+        <v>0.766656</v>
+      </c>
+      <c r="I9">
+        <v>0.0002792891738906664</v>
+      </c>
+      <c r="J9">
+        <v>0.0003024960092106361</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.01667133333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.050014</v>
+      </c>
+      <c r="O9">
+        <v>0.001826134165544791</v>
+      </c>
+      <c r="P9">
+        <v>0.001826134165544791</v>
+      </c>
+      <c r="Q9">
+        <v>0.004260392576</v>
+      </c>
+      <c r="R9">
+        <v>0.038343533184</v>
+      </c>
+      <c r="S9">
+        <v>5.100195025085262E-07</v>
+      </c>
+      <c r="T9">
+        <v>5.523982973604943E-07</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>20</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>209.711964252028</v>
-      </c>
-      <c r="H5">
-        <v>209.711964252028</v>
-      </c>
-      <c r="I5">
-        <v>0.2413913996455498</v>
-      </c>
-      <c r="J5">
-        <v>0.2413913996455498</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>3.20250548638032</v>
-      </c>
-      <c r="N5">
-        <v>3.20250548638032</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>671.6037160767132</v>
-      </c>
-      <c r="R5">
-        <v>671.6037160767132</v>
-      </c>
-      <c r="S5">
-        <v>0.2413913996455498</v>
-      </c>
-      <c r="T5">
-        <v>0.2413913996455498</v>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>210.592407</v>
+      </c>
+      <c r="H10">
+        <v>421.184814</v>
+      </c>
+      <c r="I10">
+        <v>0.2301534692691781</v>
+      </c>
+      <c r="J10">
+        <v>0.1661849974109953</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>9.112632333333332</v>
+      </c>
+      <c r="N10">
+        <v>27.337897</v>
+      </c>
+      <c r="O10">
+        <v>0.9981738658344552</v>
+      </c>
+      <c r="P10">
+        <v>0.9981738658344552</v>
+      </c>
+      <c r="Q10">
+        <v>1919.051177182693</v>
+      </c>
+      <c r="R10">
+        <v>11514.30706309616</v>
+      </c>
+      <c r="S10">
+        <v>0.229733178155627</v>
+      </c>
+      <c r="T10">
+        <v>0.1658815213094222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>210.592407</v>
+      </c>
+      <c r="H11">
+        <v>421.184814</v>
+      </c>
+      <c r="I11">
+        <v>0.2301534692691781</v>
+      </c>
+      <c r="J11">
+        <v>0.1661849974109953</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.01667133333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.050014</v>
+      </c>
+      <c r="O11">
+        <v>0.001826134165544791</v>
+      </c>
+      <c r="P11">
+        <v>0.001826134165544791</v>
+      </c>
+      <c r="Q11">
+        <v>3.510856214566</v>
+      </c>
+      <c r="R11">
+        <v>21.065137287396</v>
+      </c>
+      <c r="S11">
+        <v>0.0004202911135511093</v>
+      </c>
+      <c r="T11">
+        <v>0.0003034761015731913</v>
       </c>
     </row>
   </sheetData>
